--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-dynamic/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-dynamic/2_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.929</v>
+        <v>-1.944</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.039</v>
+        <v>-0.637</v>
       </c>
       <c r="D4" t="n">
-        <v>57.54</v>
+        <v>-67.23</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.015</v>
+        <v>0.005</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.129</v>
+        <v>0.029</v>
       </c>
       <c r="D5" t="n">
-        <v>760</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.321</v>
+        <v>7.878</v>
       </c>
       <c r="C6" t="n">
-        <v>12.85</v>
+        <v>4.381</v>
       </c>
       <c r="D6" t="n">
-        <v>37.86</v>
+        <v>-44.39</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.614</v>
+        <v>0.546</v>
       </c>
       <c r="C7" t="n">
-        <v>0.871</v>
+        <v>0.28</v>
       </c>
       <c r="D7" t="n">
-        <v>41.86</v>
+        <v>-48.72</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.045</v>
+        <v>18.558</v>
       </c>
       <c r="C8" t="n">
-        <v>23.539</v>
+        <v>14.703</v>
       </c>
       <c r="D8" t="n">
-        <v>23.6</v>
+        <v>-20.77</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.363</v>
+        <v>7.471</v>
       </c>
       <c r="C9" t="n">
-        <v>11.237</v>
+        <v>4.014</v>
       </c>
       <c r="D9" t="n">
-        <v>34.37</v>
+        <v>-46.27</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.008</v>
+        <v>73.825</v>
       </c>
       <c r="C10" t="n">
-        <v>184.187</v>
+        <v>30.653</v>
       </c>
       <c r="D10" t="n">
-        <v>77.09</v>
+        <v>-58.48</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.843</v>
+        <v>0.585</v>
       </c>
       <c r="C11" t="n">
-        <v>3.176</v>
+        <v>0.152</v>
       </c>
       <c r="D11" t="n">
-        <v>276.75</v>
+        <v>-74.02</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-5.163</v>
+        <v>-5.245</v>
       </c>
       <c r="C12" t="n">
-        <v>-9.914</v>
+        <v>-1.593</v>
       </c>
       <c r="D12" t="n">
-        <v>92.02</v>
+        <v>-69.63</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.198</v>
+        <v>8.592000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>13.572</v>
+        <v>5.537</v>
       </c>
       <c r="D13" t="n">
-        <v>33.08</v>
+        <v>-35.56</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.868328019976616</v>
+        <v>4.152332209405445</v>
       </c>
       <c r="C4" t="n">
-        <v>3.568414002656937</v>
+        <v>4.857625893184117</v>
       </c>
       <c r="D4" t="n">
-        <v>24.41</v>
+        <v>16.99</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4794973058721778</v>
+        <v>1.825524646842039</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6437871243758083</v>
+        <v>1.348297241603021</v>
       </c>
       <c r="G4" t="n">
-        <v>34.26</v>
+        <v>-26.14</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>1.076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.732</v>
+        <v>0.755</v>
       </c>
       <c r="D5" t="n">
-        <v>-31.97</v>
+        <v>-29.83</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.199961277023374</v>
+        <v>2.352475801334372</v>
       </c>
       <c r="C6" t="n">
-        <v>4.45114201193007</v>
+        <v>2.084165882914497</v>
       </c>
       <c r="D6" t="n">
-        <v>-14.4</v>
+        <v>-11.41</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7715944174475401</v>
+        <v>0.6463986984600578</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5913068126373395</v>
+        <v>0.4885761012474983</v>
       </c>
       <c r="G6" t="n">
-        <v>-23.37</v>
+        <v>-24.42</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-dynamic/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-dynamic/2_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.944</v>
+        <v>-1.22</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.637</v>
+        <v>-0.054</v>
       </c>
       <c r="D4" t="n">
-        <v>-67.23</v>
+        <v>-95.56999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005</v>
+        <v>-0.022</v>
       </c>
       <c r="C5" t="n">
-        <v>0.029</v>
+        <v>0.019</v>
       </c>
       <c r="D5" t="n">
-        <v>480</v>
+        <v>-186.36</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.878</v>
+        <v>5.939</v>
       </c>
       <c r="C6" t="n">
-        <v>4.381</v>
+        <v>2.82</v>
       </c>
       <c r="D6" t="n">
-        <v>-44.39</v>
+        <v>-52.52</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.546</v>
+        <v>0.398</v>
       </c>
       <c r="C7" t="n">
-        <v>0.28</v>
+        <v>0.183</v>
       </c>
       <c r="D7" t="n">
-        <v>-48.72</v>
+        <v>-54.02</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.558</v>
+        <v>15.622</v>
       </c>
       <c r="C8" t="n">
-        <v>14.703</v>
+        <v>11.849</v>
       </c>
       <c r="D8" t="n">
-        <v>-20.77</v>
+        <v>-24.15</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.471</v>
+        <v>5.195</v>
       </c>
       <c r="C9" t="n">
-        <v>4.014</v>
+        <v>2.135</v>
       </c>
       <c r="D9" t="n">
-        <v>-46.27</v>
+        <v>-58.9</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.825</v>
+        <v>47.362</v>
       </c>
       <c r="C10" t="n">
-        <v>30.653</v>
+        <v>14.527</v>
       </c>
       <c r="D10" t="n">
-        <v>-58.48</v>
+        <v>-69.33</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.585</v>
+        <v>0.296</v>
       </c>
       <c r="C11" t="n">
-        <v>0.152</v>
+        <v>0.056</v>
       </c>
       <c r="D11" t="n">
-        <v>-74.02</v>
+        <v>-81.08</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-5.245</v>
+        <v>-3.006</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.593</v>
+        <v>-0.229</v>
       </c>
       <c r="D12" t="n">
-        <v>-69.63</v>
+        <v>-92.38</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.592000000000001</v>
+        <v>6.882</v>
       </c>
       <c r="C13" t="n">
-        <v>5.537</v>
+        <v>3.811</v>
       </c>
       <c r="D13" t="n">
-        <v>-35.56</v>
+        <v>-44.62</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.152332209405445</v>
+        <v>2.87216533933367</v>
       </c>
       <c r="C4" t="n">
-        <v>4.857625893184117</v>
+        <v>3.851580937703451</v>
       </c>
       <c r="D4" t="n">
-        <v>16.99</v>
+        <v>34.1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.825524646842039</v>
+        <v>0.2977124369935257</v>
       </c>
       <c r="F4" t="n">
-        <v>1.348297241603021</v>
+        <v>1.919688230051964</v>
       </c>
       <c r="G4" t="n">
-        <v>-26.14</v>
+        <v>544.8099999999999</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>1.076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.755</v>
+        <v>0.923</v>
       </c>
       <c r="D5" t="n">
-        <v>-29.83</v>
+        <v>-14.22</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.352475801334372</v>
+        <v>3.654420479041987</v>
       </c>
       <c r="C6" t="n">
-        <v>2.084165882914497</v>
+        <v>2.909506595898843</v>
       </c>
       <c r="D6" t="n">
-        <v>-11.41</v>
+        <v>-20.38</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6463986984600578</v>
+        <v>0.4330518973961694</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4885761012474983</v>
+        <v>0.2727546335447368</v>
       </c>
       <c r="G6" t="n">
-        <v>-24.42</v>
+        <v>-37.02</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-dynamic/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-dynamic/2_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
